--- a/INTLINE/data/134/DEUSTATIS/Local units - construction_historical.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Local units - construction_historical.xlsx
@@ -7353,10 +7353,8 @@
       <c r="AGJ2" t="n">
         <v>529148</v>
       </c>
-      <c r="AGK2" t="inlineStr">
-        <is>
-          <t>...</t>
-        </is>
+      <c r="AGK2" t="n">
+        <v>530623</v>
       </c>
       <c r="AGL2" t="inlineStr">
         <is>
@@ -8926,10 +8924,8 @@
       <c r="AGJ3" t="n">
         <v>57697</v>
       </c>
-      <c r="AGK3" t="inlineStr">
-        <is>
-          <t>...</t>
-        </is>
+      <c r="AGK3" t="n">
+        <v>52058</v>
       </c>
       <c r="AGL3" t="inlineStr">
         <is>
